--- a/production/singlefloor/datasample.xlsx
+++ b/production/singlefloor/datasample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\zenvijay\production\singlefloor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development Current\zenvijayscript\production\singlefloor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059FEB4-A425-4AAF-A67B-478CA64FE8F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9924B-4C0B-48CA-8104-52394E3FA61C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,8 +103,7 @@
   1638 - S/O
   1639 - D/O
   1640 - W/O
-  1641 - C/O
-  51 - Usage Type</t>
+  1641 - C/O</t>
         </r>
       </text>
     </comment>
@@ -161,24 +160,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SALMAN PC:</t>
-        </r>
-        <r>
-          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-    38 - 2017-2018
-    39 - 2018-2019</t>
+    39 - 2018-2019
+    40 - 2019-2020</t>
         </r>
       </text>
     </comment>
@@ -405,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t>ownershiptype</t>
   </si>
@@ -624,6 +613,36 @@
   </si>
   <si>
     <t>consolidatedtax1819</t>
+  </si>
+  <si>
+    <t>consolidatedtax1920</t>
+  </si>
+  <si>
+    <t>treetax1920</t>
+  </si>
+  <si>
+    <t>educationcess1920</t>
+  </si>
+  <si>
+    <t>employementguaranteecesstax1920</t>
+  </si>
+  <si>
+    <t>firetax1920</t>
+  </si>
+  <si>
+    <t>swachatakar1920</t>
+  </si>
+  <si>
+    <t>watertreatmentandhealthcaretax1920</t>
+  </si>
+  <si>
+    <t>electricitytax1920</t>
+  </si>
+  <si>
+    <t>specialeducationtax1920</t>
+  </si>
+  <si>
+    <t>interest1920</t>
   </si>
 </sst>
 </file>
@@ -1101,11 +1120,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV1" sqref="AV1"/>
+      <selection pane="bottomLeft" activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1155,7 @@
     <col min="27" max="27" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1156,10 +1175,20 @@
     <col min="48" max="48" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="51" max="51" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1279,7 @@
       <c r="AD1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AF1" s="8" t="s">
@@ -1310,8 +1339,38 @@
       <c r="AX1" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="AY1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>610</v>
       </c>
@@ -1359,7 +1418,7 @@
         <v>135</v>
       </c>
       <c r="Q2" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="15">
         <v>619</v>
@@ -1400,7 +1459,7 @@
       <c r="AD2" s="12">
         <v>554</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="14">
         <v>1214</v>
       </c>
       <c r="AF2" s="12">
@@ -1460,8 +1519,38 @@
       <c r="AX2" s="12">
         <v>0</v>
       </c>
+      <c r="AY2" s="14">
+        <v>607</v>
+      </c>
+      <c r="AZ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="12">
+        <v>10</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>10</v>
+      </c>
+      <c r="BG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>610</v>
       </c>
@@ -1509,7 +1598,7 @@
         <v>170</v>
       </c>
       <c r="Q3" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="15">
         <v>619</v>
@@ -1550,7 +1639,7 @@
       <c r="AD3" s="12">
         <v>554</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="14">
         <v>1530</v>
       </c>
       <c r="AF3" s="12">
@@ -1610,8 +1699,38 @@
       <c r="AX3" s="12">
         <v>0</v>
       </c>
+      <c r="AY3" s="14">
+        <v>765</v>
+      </c>
+      <c r="AZ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="12">
+        <v>10</v>
+      </c>
+      <c r="BF3" s="12">
+        <v>10</v>
+      </c>
+      <c r="BG3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>610</v>
       </c>
@@ -1659,7 +1778,7 @@
         <v>132</v>
       </c>
       <c r="Q4" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="15">
         <v>619</v>
@@ -1700,7 +1819,7 @@
       <c r="AD4" s="12">
         <v>554</v>
       </c>
-      <c r="AE4" s="12">
+      <c r="AE4" s="14">
         <v>1188</v>
       </c>
       <c r="AF4" s="12">
@@ -1760,8 +1879,38 @@
       <c r="AX4" s="12">
         <v>0</v>
       </c>
+      <c r="AY4" s="14">
+        <v>594</v>
+      </c>
+      <c r="AZ4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="12">
+        <v>10</v>
+      </c>
+      <c r="BF4" s="12">
+        <v>10</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>610</v>
       </c>
@@ -1809,7 +1958,7 @@
         <v>190</v>
       </c>
       <c r="Q5" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="15">
         <v>619</v>
@@ -1850,7 +1999,7 @@
       <c r="AD5" s="12">
         <v>554</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="14">
         <v>1710</v>
       </c>
       <c r="AF5" s="12">
@@ -1910,8 +2059,38 @@
       <c r="AX5" s="12">
         <v>0</v>
       </c>
+      <c r="AY5" s="14">
+        <v>855</v>
+      </c>
+      <c r="AZ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="12">
+        <v>10</v>
+      </c>
+      <c r="BF5" s="12">
+        <v>10</v>
+      </c>
+      <c r="BG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>610</v>
       </c>
@@ -1959,7 +2138,7 @@
         <v>215</v>
       </c>
       <c r="Q6" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="15">
         <v>619</v>
@@ -2000,7 +2179,7 @@
       <c r="AD6" s="12">
         <v>554</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="14">
         <v>1452</v>
       </c>
       <c r="AF6" s="12">
@@ -2060,8 +2239,38 @@
       <c r="AX6" s="12">
         <v>0</v>
       </c>
+      <c r="AY6" s="14">
+        <v>484</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="12">
+        <v>10</v>
+      </c>
+      <c r="BF6" s="12">
+        <v>10</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>610</v>
       </c>
@@ -2109,7 +2318,7 @@
         <v>550</v>
       </c>
       <c r="Q7" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="15">
         <v>621</v>
@@ -2150,7 +2359,7 @@
       <c r="AD7" s="12">
         <v>554</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="14">
         <v>2474</v>
       </c>
       <c r="AF7" s="12">
@@ -2210,8 +2419,38 @@
       <c r="AX7" s="12">
         <v>0</v>
       </c>
+      <c r="AY7" s="14">
+        <v>1237</v>
+      </c>
+      <c r="AZ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="12">
+        <v>20</v>
+      </c>
+      <c r="BF7" s="12">
+        <v>20</v>
+      </c>
+      <c r="BG7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>610</v>
       </c>
@@ -2259,7 +2498,7 @@
         <v>494</v>
       </c>
       <c r="Q8" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="15">
         <v>621</v>
@@ -2300,7 +2539,7 @@
       <c r="AD8" s="12">
         <v>554</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="14">
         <v>1112</v>
       </c>
       <c r="AF8" s="12">
@@ -2360,8 +2599,38 @@
       <c r="AX8" s="12">
         <v>0</v>
       </c>
+      <c r="AY8" s="14">
+        <v>1112</v>
+      </c>
+      <c r="AZ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="12">
+        <v>20</v>
+      </c>
+      <c r="BF8" s="12">
+        <v>20</v>
+      </c>
+      <c r="BG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>610</v>
       </c>
@@ -2409,7 +2678,7 @@
         <v>413</v>
       </c>
       <c r="Q9" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="15">
         <v>621</v>
@@ -2450,7 +2719,7 @@
       <c r="AD9" s="12">
         <v>554</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="14">
         <v>1858</v>
       </c>
       <c r="AF9" s="12">
@@ -2510,8 +2779,38 @@
       <c r="AX9" s="12">
         <v>0</v>
       </c>
+      <c r="AY9" s="14">
+        <v>929</v>
+      </c>
+      <c r="AZ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="12">
+        <v>20</v>
+      </c>
+      <c r="BF9" s="12">
+        <v>20</v>
+      </c>
+      <c r="BG9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>610</v>
       </c>
@@ -2559,7 +2858,7 @@
         <v>550</v>
       </c>
       <c r="Q10" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="15">
         <v>622</v>
@@ -2600,7 +2899,7 @@
       <c r="AD10" s="12">
         <v>554</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="14">
         <v>1237</v>
       </c>
       <c r="AF10" s="12">
@@ -2660,8 +2959,38 @@
       <c r="AX10" s="12">
         <v>0</v>
       </c>
+      <c r="AY10" s="14">
+        <v>1237</v>
+      </c>
+      <c r="AZ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="12">
+        <v>20</v>
+      </c>
+      <c r="BF10" s="12">
+        <v>20</v>
+      </c>
+      <c r="BG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>610</v>
       </c>
@@ -2709,7 +3038,7 @@
         <v>535</v>
       </c>
       <c r="Q11" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" s="15">
         <v>622</v>
@@ -2750,7 +3079,7 @@
       <c r="AD11" s="12">
         <v>554</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="14">
         <v>1204</v>
       </c>
       <c r="AF11" s="12">
@@ -2808,6 +3137,36 @@
         <v>0</v>
       </c>
       <c r="AX11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="14">
+        <v>1204</v>
+      </c>
+      <c r="AZ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="12">
+        <v>20</v>
+      </c>
+      <c r="BF11" s="12">
+        <v>20</v>
+      </c>
+      <c r="BG11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="12">
         <v>0</v>
       </c>
     </row>
